--- a/OperadoraNominas/bin/Debug/Archivos/timbradosSQ.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbradosSQ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="521" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -484,6 +484,30 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>210/038</t>
+  </si>
+  <si>
+    <t>PREVISION_ PFB</t>
+  </si>
+  <si>
+    <t>209/038</t>
+  </si>
+  <si>
+    <t>APORT PATRONAL PLAN FLEX LP</t>
+  </si>
+  <si>
+    <t>211/003</t>
+  </si>
+  <si>
+    <t>212/003</t>
+  </si>
+  <si>
+    <t>PLAN FLEX LP</t>
+  </si>
+  <si>
+    <t>APOR PATRON PLAN FLEX LP</t>
   </si>
 </sst>
 </file>
@@ -882,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -922,10 +946,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -964,12 +993,7 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color indexed="10"/>
@@ -1293,13 +1317,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1384,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1369,39 +1393,39 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38"/>
+      <c r="N1" s="39"/>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="37" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="38"/>
+      <c r="S1" s="39"/>
       <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="W1" s="39"/>
+      <c r="X1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
+      <c r="AA1" s="39"/>
       <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1434,7 +1458,6 @@
       <c r="F3" s="17"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="26"/>
       <c r="K3" s="16"/>
       <c r="L3" s="18"/>
       <c r="T3" s="16"/>
@@ -1451,6 +1474,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
+      <c r="I4" s="26"/>
       <c r="K4" s="16"/>
       <c r="L4" s="18"/>
       <c r="T4" s="16"/>
@@ -1467,7 +1491,6 @@
       <c r="F5" s="17"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="26"/>
       <c r="K5" s="16"/>
       <c r="L5" s="18"/>
       <c r="T5" s="16"/>
@@ -1484,6 +1507,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
+      <c r="I6" s="26"/>
       <c r="K6" s="16"/>
       <c r="L6" s="18"/>
       <c r="T6" s="16"/>
@@ -1500,7 +1524,6 @@
       <c r="F7" s="17"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="26"/>
       <c r="K7" s="16"/>
       <c r="L7" s="18"/>
       <c r="T7" s="16"/>
@@ -1517,6 +1540,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
+      <c r="I8" s="26"/>
       <c r="K8" s="16"/>
       <c r="L8" s="18"/>
       <c r="T8" s="16"/>
@@ -1533,7 +1557,6 @@
       <c r="F9" s="17"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="26"/>
       <c r="K9" s="16"/>
       <c r="L9" s="18"/>
       <c r="T9" s="16"/>
@@ -1550,6 +1573,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
+      <c r="I10" s="26"/>
       <c r="K10" s="16"/>
       <c r="L10" s="18"/>
       <c r="T10" s="16"/>
@@ -1566,7 +1590,6 @@
       <c r="F11" s="17"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="26"/>
       <c r="K11" s="16"/>
       <c r="L11" s="18"/>
       <c r="T11" s="16"/>
@@ -1583,6 +1606,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
+      <c r="I12" s="26"/>
       <c r="K12" s="16"/>
       <c r="L12" s="18"/>
       <c r="T12" s="16"/>
@@ -1599,7 +1623,6 @@
       <c r="F13" s="17"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="26"/>
       <c r="K13" s="16"/>
       <c r="L13" s="18"/>
       <c r="T13" s="16"/>
@@ -1616,6 +1639,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
+      <c r="I14" s="26"/>
       <c r="K14" s="16"/>
       <c r="L14" s="18"/>
       <c r="T14" s="16"/>
@@ -1632,7 +1656,6 @@
       <c r="F15" s="17"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="26"/>
       <c r="K15" s="16"/>
       <c r="L15" s="18"/>
       <c r="T15" s="16"/>
@@ -1649,6 +1672,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
+      <c r="I16" s="26"/>
       <c r="K16" s="16"/>
       <c r="L16" s="18"/>
       <c r="T16" s="16"/>
@@ -1665,7 +1689,6 @@
       <c r="F17" s="17"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="26"/>
       <c r="K17" s="16"/>
       <c r="L17" s="18"/>
       <c r="T17" s="16"/>
@@ -1682,6 +1705,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
+      <c r="I18" s="26"/>
       <c r="K18" s="16"/>
       <c r="L18" s="18"/>
       <c r="T18" s="16"/>
@@ -1698,7 +1722,6 @@
       <c r="F19" s="17"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="26"/>
       <c r="K19" s="16"/>
       <c r="L19" s="18"/>
       <c r="T19" s="16"/>
@@ -1715,6 +1738,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
+      <c r="I20" s="26"/>
       <c r="K20" s="16"/>
       <c r="L20" s="18"/>
       <c r="T20" s="16"/>
@@ -1731,7 +1755,6 @@
       <c r="F21" s="17"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
       <c r="K21" s="16"/>
       <c r="L21" s="18"/>
       <c r="T21" s="16"/>
@@ -1748,6 +1771,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
+      <c r="I22" s="26"/>
       <c r="K22" s="16"/>
       <c r="L22" s="18"/>
       <c r="T22" s="16"/>
@@ -1764,7 +1788,6 @@
       <c r="F23" s="17"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="26"/>
       <c r="K23" s="16"/>
       <c r="L23" s="18"/>
       <c r="T23" s="16"/>
@@ -1781,6 +1804,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
+      <c r="I24" s="26"/>
       <c r="K24" s="16"/>
       <c r="L24" s="18"/>
       <c r="T24" s="16"/>
@@ -1797,7 +1821,6 @@
       <c r="F25" s="17"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="26"/>
       <c r="K25" s="16"/>
       <c r="L25" s="18"/>
       <c r="T25" s="16"/>
@@ -1814,6 +1837,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
+      <c r="I26" s="26"/>
       <c r="K26" s="16"/>
       <c r="L26" s="18"/>
       <c r="T26" s="16"/>
@@ -1830,7 +1854,6 @@
       <c r="F27" s="17"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="26"/>
       <c r="K27" s="16"/>
       <c r="L27" s="18"/>
       <c r="T27" s="16"/>
@@ -1847,6 +1870,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
+      <c r="I28" s="26"/>
       <c r="K28" s="16"/>
       <c r="L28" s="18"/>
       <c r="T28" s="16"/>
@@ -1863,7 +1887,6 @@
       <c r="F29" s="17"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="26"/>
       <c r="K29" s="16"/>
       <c r="L29" s="18"/>
       <c r="T29" s="16"/>
@@ -1880,6 +1903,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
+      <c r="I30" s="26"/>
       <c r="K30" s="16"/>
       <c r="L30" s="18"/>
       <c r="T30" s="16"/>
@@ -1896,7 +1920,6 @@
       <c r="F31" s="17"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
-      <c r="I31" s="26"/>
       <c r="K31" s="16"/>
       <c r="L31" s="18"/>
       <c r="T31" s="16"/>
@@ -1913,6 +1936,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
+      <c r="I32" s="26"/>
       <c r="K32" s="16"/>
       <c r="L32" s="18"/>
       <c r="T32" s="16"/>
@@ -1929,7 +1953,6 @@
       <c r="F33" s="17"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="26"/>
       <c r="K33" s="16"/>
       <c r="L33" s="18"/>
       <c r="T33" s="16"/>
@@ -2575,7 +2598,7 @@
       <c r="T73" s="16"/>
       <c r="U73" s="16"/>
       <c r="Z73" s="16"/>
-      <c r="AC73" s="16"/>
+      <c r="AC73" s="19"/>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
@@ -2607,7 +2630,7 @@
       <c r="T75" s="16"/>
       <c r="U75" s="16"/>
       <c r="Z75" s="16"/>
-      <c r="AC75" s="19"/>
+      <c r="AC75" s="16"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
@@ -3345,22 +3368,6 @@
       <c r="Z121" s="16"/>
       <c r="AC121" s="16"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="K122" s="16"/>
-      <c r="L122" s="18"/>
-      <c r="T122" s="16"/>
-      <c r="U122" s="16"/>
-      <c r="Z122" s="16"/>
-      <c r="AC122" s="16"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="X1:Y1"/>
@@ -3371,13 +3378,8 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="V1:W1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:A122">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C122">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="A2:A121 C2:C121">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3388,14 +3390,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK57"/>
+  <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="A37" sqref="A37:XFD136"/>
       <selection pane="topRight" activeCell="A37" sqref="A37:XFD136"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD136"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="AK2" sqref="AK2:AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3403,11 +3405,12 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="20" width="9.140625" customWidth="1"/>
-    <col min="35" max="35" width="10.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
@@ -3464,66 +3467,82 @@
         <v>33</v>
       </c>
       <c r="AH1" s="8"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="C2" s="40" t="s">
+      <c r="AI1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL1" s="8"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="40" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42" t="s">
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="40" t="s">
+      <c r="V2" s="44"/>
+      <c r="W2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="42" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="40" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="42" t="s">
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="40" t="s">
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42" t="s">
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="43"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL2" s="44"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3626,100 +3645,192 @@
       <c r="AH3" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="32"/>
-      <c r="AK4" s="36"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16">
+        <v>5</v>
+      </c>
+      <c r="F4" s="16">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16">
+        <v>7</v>
+      </c>
+      <c r="H4" s="16">
+        <v>8</v>
+      </c>
+      <c r="I4" s="16">
+        <v>9</v>
+      </c>
+      <c r="J4" s="16">
+        <v>10</v>
+      </c>
+      <c r="K4" s="16">
+        <v>11</v>
+      </c>
+      <c r="L4" s="16">
+        <v>12</v>
+      </c>
+      <c r="M4" s="16">
+        <v>13</v>
+      </c>
+      <c r="N4" s="16">
+        <v>14</v>
+      </c>
+      <c r="O4" s="16">
+        <v>15</v>
+      </c>
+      <c r="P4" s="16">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>17</v>
+      </c>
+      <c r="R4" s="16">
+        <v>18</v>
+      </c>
+      <c r="S4" s="16">
+        <v>19</v>
+      </c>
+      <c r="T4" s="16">
+        <v>20</v>
+      </c>
+      <c r="U4" s="16">
+        <v>21</v>
+      </c>
+      <c r="V4" s="16">
+        <v>22</v>
+      </c>
+      <c r="W4" s="16">
+        <v>23</v>
+      </c>
+      <c r="X4" s="16">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>32</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>33</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>34</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>35</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>36</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>37</v>
+      </c>
+      <c r="AL4" s="16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="D5" s="32"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
       <c r="V5" s="25"/>
       <c r="W5" s="32"/>
       <c r="X5" s="32"/>
       <c r="Y5" s="32"/>
       <c r="Z5" s="32"/>
-      <c r="AA5" s="34"/>
+      <c r="AA5" s="33"/>
       <c r="AB5" s="32"/>
       <c r="AC5" s="32"/>
       <c r="AD5" s="32"/>
-      <c r="AE5" s="34"/>
+      <c r="AE5" s="33"/>
       <c r="AF5" s="32"/>
-      <c r="AG5" s="34"/>
+      <c r="AG5" s="33"/>
       <c r="AH5" s="32"/>
-      <c r="AK5" s="36"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK5" s="35"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="D6" s="32"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
       <c r="V6" s="25"/>
       <c r="W6" s="32"/>
       <c r="X6" s="32"/>
@@ -3733,29 +3844,29 @@
       <c r="AF6" s="32"/>
       <c r="AG6" s="25"/>
       <c r="AH6" s="32"/>
-      <c r="AK6" s="36"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK6" s="35"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="D7" s="32"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
       <c r="V7" s="25"/>
       <c r="W7" s="32"/>
       <c r="X7" s="32"/>
@@ -3769,29 +3880,29 @@
       <c r="AF7" s="32"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="32"/>
-      <c r="AK7" s="36"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK7" s="35"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="D8" s="32"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
       <c r="V8" s="25"/>
       <c r="W8" s="32"/>
       <c r="X8" s="32"/>
@@ -3805,29 +3916,29 @@
       <c r="AF8" s="32"/>
       <c r="AG8" s="25"/>
       <c r="AH8" s="32"/>
-      <c r="AK8" s="36"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK8" s="35"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="D9" s="32"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
       <c r="V9" s="25"/>
       <c r="W9" s="32"/>
       <c r="X9" s="32"/>
@@ -3841,29 +3952,29 @@
       <c r="AF9" s="32"/>
       <c r="AG9" s="25"/>
       <c r="AH9" s="32"/>
-      <c r="AK9" s="36"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK9" s="35"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="D10" s="32"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
       <c r="V10" s="25"/>
       <c r="W10" s="32"/>
       <c r="X10" s="32"/>
@@ -3877,29 +3988,29 @@
       <c r="AF10" s="32"/>
       <c r="AG10" s="25"/>
       <c r="AH10" s="32"/>
-      <c r="AK10" s="36"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK10" s="35"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="D11" s="32"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
       <c r="V11" s="25"/>
       <c r="W11" s="32"/>
       <c r="X11" s="32"/>
@@ -3913,29 +4024,29 @@
       <c r="AF11" s="32"/>
       <c r="AG11" s="25"/>
       <c r="AH11" s="32"/>
-      <c r="AK11" s="36"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK11" s="35"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="D12" s="32"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
       <c r="V12" s="25"/>
       <c r="W12" s="32"/>
       <c r="X12" s="32"/>
@@ -3949,29 +4060,29 @@
       <c r="AF12" s="32"/>
       <c r="AG12" s="25"/>
       <c r="AH12" s="32"/>
-      <c r="AK12" s="36"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK12" s="35"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="D13" s="32"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
       <c r="V13" s="25"/>
       <c r="W13" s="32"/>
       <c r="X13" s="32"/>
@@ -3985,29 +4096,29 @@
       <c r="AF13" s="32"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="32"/>
-      <c r="AK13" s="36"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK13" s="35"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="D14" s="32"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
       <c r="V14" s="25"/>
       <c r="W14" s="32"/>
       <c r="X14" s="32"/>
@@ -4021,29 +4132,29 @@
       <c r="AF14" s="32"/>
       <c r="AG14" s="25"/>
       <c r="AH14" s="32"/>
-      <c r="AK14" s="36"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK14" s="35"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="D15" s="32"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
       <c r="V15" s="25"/>
       <c r="W15" s="32"/>
       <c r="X15" s="32"/>
@@ -4057,29 +4168,29 @@
       <c r="AF15" s="32"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="32"/>
-      <c r="AK15" s="36"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK15" s="35"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="D16" s="32"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
       <c r="V16" s="25"/>
       <c r="W16" s="32"/>
       <c r="X16" s="32"/>
@@ -4093,29 +4204,29 @@
       <c r="AF16" s="32"/>
       <c r="AG16" s="25"/>
       <c r="AH16" s="32"/>
-      <c r="AK16" s="36"/>
+      <c r="AK16" s="35"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="D17" s="32"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
       <c r="V17" s="25"/>
       <c r="W17" s="32"/>
       <c r="X17" s="32"/>
@@ -4129,29 +4240,29 @@
       <c r="AF17" s="32"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="32"/>
-      <c r="AK17" s="36"/>
+      <c r="AK17" s="35"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="D18" s="32"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
       <c r="V18" s="25"/>
       <c r="W18" s="32"/>
       <c r="X18" s="32"/>
@@ -4165,29 +4276,29 @@
       <c r="AF18" s="32"/>
       <c r="AG18" s="25"/>
       <c r="AH18" s="32"/>
-      <c r="AK18" s="36"/>
+      <c r="AK18" s="35"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="D19" s="32"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
       <c r="V19" s="25"/>
       <c r="W19" s="32"/>
       <c r="X19" s="32"/>
@@ -4201,29 +4312,29 @@
       <c r="AF19" s="32"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="32"/>
-      <c r="AK19" s="36"/>
+      <c r="AK19" s="35"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="D20" s="32"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
       <c r="V20" s="25"/>
       <c r="W20" s="32"/>
       <c r="X20" s="32"/>
@@ -4237,29 +4348,29 @@
       <c r="AF20" s="32"/>
       <c r="AG20" s="25"/>
       <c r="AH20" s="32"/>
-      <c r="AK20" s="36"/>
+      <c r="AK20" s="35"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="D21" s="32"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
       <c r="V21" s="25"/>
       <c r="W21" s="32"/>
       <c r="X21" s="32"/>
@@ -4273,29 +4384,29 @@
       <c r="AF21" s="32"/>
       <c r="AG21" s="25"/>
       <c r="AH21" s="32"/>
-      <c r="AK21" s="36"/>
+      <c r="AK21" s="35"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="D22" s="32"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
       <c r="V22" s="25"/>
       <c r="W22" s="32"/>
       <c r="X22" s="32"/>
@@ -4309,29 +4420,29 @@
       <c r="AF22" s="32"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="32"/>
-      <c r="AK22" s="36"/>
+      <c r="AK22" s="35"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="D23" s="32"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
       <c r="V23" s="25"/>
       <c r="W23" s="32"/>
       <c r="X23" s="32"/>
@@ -4345,29 +4456,29 @@
       <c r="AF23" s="32"/>
       <c r="AG23" s="25"/>
       <c r="AH23" s="32"/>
-      <c r="AK23" s="36"/>
+      <c r="AK23" s="35"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="D24" s="32"/>
       <c r="E24" s="25"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
       <c r="V24" s="25"/>
       <c r="W24" s="32"/>
       <c r="X24" s="32"/>
@@ -4381,29 +4492,29 @@
       <c r="AF24" s="32"/>
       <c r="AG24" s="25"/>
       <c r="AH24" s="32"/>
-      <c r="AK24" s="36"/>
+      <c r="AK24" s="35"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="D25" s="32"/>
       <c r="E25" s="25"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
       <c r="V25" s="25"/>
       <c r="W25" s="32"/>
       <c r="X25" s="32"/>
@@ -4417,29 +4528,29 @@
       <c r="AF25" s="32"/>
       <c r="AG25" s="25"/>
       <c r="AH25" s="32"/>
-      <c r="AK25" s="36"/>
+      <c r="AK25" s="35"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="D26" s="32"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
       <c r="V26" s="25"/>
       <c r="W26" s="32"/>
       <c r="X26" s="32"/>
@@ -4453,29 +4564,29 @@
       <c r="AF26" s="32"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="32"/>
-      <c r="AK26" s="36"/>
+      <c r="AK26" s="35"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="D27" s="32"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
       <c r="V27" s="25"/>
       <c r="W27" s="32"/>
       <c r="X27" s="32"/>
@@ -4489,29 +4600,29 @@
       <c r="AF27" s="32"/>
       <c r="AG27" s="25"/>
       <c r="AH27" s="32"/>
-      <c r="AK27" s="36"/>
+      <c r="AK27" s="35"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="D28" s="32"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
       <c r="V28" s="25"/>
       <c r="W28" s="32"/>
       <c r="X28" s="32"/>
@@ -4525,29 +4636,29 @@
       <c r="AF28" s="32"/>
       <c r="AG28" s="25"/>
       <c r="AH28" s="32"/>
-      <c r="AK28" s="36"/>
+      <c r="AK28" s="35"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="D29" s="32"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
       <c r="V29" s="25"/>
       <c r="W29" s="32"/>
       <c r="X29" s="32"/>
@@ -4561,29 +4672,29 @@
       <c r="AF29" s="32"/>
       <c r="AG29" s="25"/>
       <c r="AH29" s="32"/>
-      <c r="AK29" s="36"/>
+      <c r="AK29" s="35"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="D30" s="32"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
       <c r="V30" s="25"/>
       <c r="W30" s="32"/>
       <c r="X30" s="32"/>
@@ -4597,29 +4708,29 @@
       <c r="AF30" s="32"/>
       <c r="AG30" s="25"/>
       <c r="AH30" s="32"/>
-      <c r="AK30" s="36"/>
+      <c r="AK30" s="35"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="D31" s="32"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
       <c r="V31" s="25"/>
       <c r="W31" s="32"/>
       <c r="X31" s="32"/>
@@ -4633,29 +4744,29 @@
       <c r="AF31" s="32"/>
       <c r="AG31" s="25"/>
       <c r="AH31" s="32"/>
-      <c r="AK31" s="36"/>
+      <c r="AK31" s="35"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="D32" s="32"/>
       <c r="E32" s="25"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
       <c r="V32" s="25"/>
       <c r="W32" s="32"/>
       <c r="X32" s="32"/>
@@ -4669,29 +4780,29 @@
       <c r="AF32" s="32"/>
       <c r="AG32" s="25"/>
       <c r="AH32" s="32"/>
-      <c r="AK32" s="36"/>
+      <c r="AK32" s="35"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="D33" s="32"/>
       <c r="E33" s="25"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
       <c r="V33" s="25"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
@@ -4705,29 +4816,29 @@
       <c r="AF33" s="32"/>
       <c r="AG33" s="25"/>
       <c r="AH33" s="32"/>
-      <c r="AK33" s="36"/>
+      <c r="AK33" s="35"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="D34" s="32"/>
       <c r="E34" s="25"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
       <c r="V34" s="25"/>
       <c r="W34" s="32"/>
       <c r="X34" s="32"/>
@@ -4741,475 +4852,405 @@
       <c r="AF34" s="32"/>
       <c r="AG34" s="25"/>
       <c r="AH34" s="32"/>
-      <c r="AK34" s="36"/>
+      <c r="AK34" s="35"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
       <c r="D35" s="32"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="25"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="32"/>
       <c r="W35" s="32"/>
       <c r="X35" s="32"/>
       <c r="Y35" s="32"/>
       <c r="Z35" s="32"/>
-      <c r="AA35" s="25"/>
+      <c r="AA35" s="32"/>
       <c r="AB35" s="32"/>
       <c r="AC35" s="32"/>
       <c r="AD35" s="32"/>
-      <c r="AE35" s="25"/>
+      <c r="AE35" s="32"/>
       <c r="AF35" s="32"/>
-      <c r="AG35" s="25"/>
+      <c r="AG35" s="32"/>
       <c r="AH35" s="32"/>
-      <c r="AK35" s="36"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="32"/>
-      <c r="AK36" s="36"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
     </row>
     <row r="49" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
     </row>
     <row r="50" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
     </row>
     <row r="51" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
     </row>
     <row r="52" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
     </row>
     <row r="53" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
     </row>
     <row r="54" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
     </row>
     <row r="55" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-    </row>
-    <row r="56" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-    </row>
-    <row r="57" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="U2:V2"/>
@@ -5223,12 +5264,12 @@
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="O2:T2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:B18 B20:B36">
+  <conditionalFormatting sqref="B18:B34 D4 F4 H4 J4 L4 N4 P4 R4 T4 V4 X4 Z4 AB4 AD4 AF4 AH4 B4:B16 AJ4 AL4">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+  <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5243,11 +5284,11 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="A37" sqref="A37:XFD136"/>
       <selection pane="topRight" activeCell="A37" sqref="A37:XFD136"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD136"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:Q1048576"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,11 +5304,13 @@
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="10.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="12" t="s">
         <v>52</v>
       </c>
@@ -5298,40 +5341,52 @@
       <c r="L1" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="46" t="s">
+      <c r="M1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5368,253 +5423,173 @@
       <c r="L3" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="32">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33">
-        <v>22959.69</v>
-      </c>
-      <c r="E4" s="34">
-        <v>0</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16">
+        <v>5</v>
+      </c>
+      <c r="F4" s="16">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16">
+        <v>7</v>
+      </c>
+      <c r="H4" s="16">
+        <v>8</v>
+      </c>
+      <c r="I4" s="16">
+        <v>9</v>
+      </c>
+      <c r="J4" s="16">
+        <v>10</v>
+      </c>
+      <c r="K4" s="16">
+        <v>11</v>
+      </c>
+      <c r="L4" s="16">
+        <v>12</v>
+      </c>
+      <c r="M4" s="16">
+        <v>13</v>
+      </c>
+      <c r="N4" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>9233.51</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="27">
-        <v>1812.02</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27">
-        <v>6623.64</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27">
-        <v>2063.0300000000002</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="27">
-        <v>3036.85</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="27">
-        <v>2637.37</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="27">
-        <v>2381.89</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="27">
-        <v>1057.42</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="27">
-        <v>8595.0499999999993</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="27">
-        <v>1259.27</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="27">
-        <v>9938.48</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="27">
-        <v>1100.48</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -5622,18 +5597,9 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>515.95000000000005</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -5641,18 +5607,9 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="27">
-        <v>579.30999999999995</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
@@ -5660,18 +5617,9 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="27">
-        <v>460.17</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -5679,18 +5627,9 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="28">
-        <v>28360.29</v>
-      </c>
-      <c r="E20" s="29">
-        <v>0</v>
-      </c>
-      <c r="F20" s="29">
-        <v>0</v>
-      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
@@ -5698,18 +5637,9 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="27">
-        <v>2384.64</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -5717,18 +5647,9 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="27">
-        <v>303.89</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -5736,18 +5657,9 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="27">
-        <v>14446.54</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -5755,18 +5667,9 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="27">
-        <v>1570.28</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -5774,18 +5677,9 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="27">
-        <v>2944.66</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
@@ -5793,18 +5687,9 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="27">
-        <v>8870</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -5812,18 +5697,9 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="27">
-        <v>506.59</v>
-      </c>
-      <c r="E27" s="16">
-        <v>0</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
@@ -5831,18 +5707,9 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="27">
-        <v>704.22</v>
-      </c>
-      <c r="E28" s="16">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
@@ -5850,18 +5717,9 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="27">
-        <v>7231.05</v>
-      </c>
-      <c r="E29" s="16">
-        <v>0</v>
-      </c>
-      <c r="F29" s="16">
-        <v>0</v>
-      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
@@ -5869,18 +5727,9 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="27">
-        <v>2320.88</v>
-      </c>
-      <c r="E30" s="16">
-        <v>0</v>
-      </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
@@ -5888,18 +5737,9 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="27">
-        <v>2944.66</v>
-      </c>
-      <c r="E31" s="16">
-        <v>0</v>
-      </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
@@ -5907,18 +5747,9 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="27">
-        <v>95.48</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16">
-        <v>0</v>
-      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
@@ -5926,18 +5757,9 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" s="27">
-        <v>2156.39</v>
-      </c>
-      <c r="E33" s="16">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16">
-        <v>0</v>
-      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
@@ -5945,18 +5767,9 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" s="27">
-        <v>466.97</v>
-      </c>
-      <c r="E34" s="16">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16">
-        <v>0</v>
-      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
@@ -5964,18 +5777,9 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="27">
-        <v>424.07</v>
-      </c>
-      <c r="E35" s="16">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
-        <v>0</v>
-      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -5983,18 +5787,9 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="27">
-        <v>324.8</v>
-      </c>
-      <c r="E36" s="16">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16">
-        <v>0</v>
-      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -6012,7 +5807,7 @@
     <mergeCell ref="F2"/>
     <mergeCell ref="G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:B36">
+  <conditionalFormatting sqref="B4:B36 D4 F4 H4 J4 L4 N4">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6047,10 +5842,10 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/OperadoraNominas/bin/Debug/Archivos/timbradosSQ.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbradosSQ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="521" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="521"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>APOR PATRON PLAN FLEX LP</t>
+  </si>
+  <si>
+    <t>Código P.</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -982,12 +985,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1317,13 +1321,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,27 +1340,27 @@
     <col min="6" max="6" width="19.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" customWidth="1"/>
-    <col min="29" max="29" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="23" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,52 +1392,55 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="N1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="Q1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="39"/>
+      <c r="S1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="39"/>
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="W1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1442,14 +1449,15 @@
       <c r="F2" s="17"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="18"/>
-      <c r="T2" s="16"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="18"/>
       <c r="U2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AC2" s="16"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AD2" s="16"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1458,14 +1466,15 @@
       <c r="F3" s="17"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="18"/>
-      <c r="T3" s="16"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="18"/>
       <c r="U3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AD3" s="16"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1475,14 +1484,15 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="26"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="18"/>
-      <c r="T4" s="16"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="18"/>
       <c r="U4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AC4" s="16"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AD4" s="16"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1491,14 +1501,15 @@
       <c r="F5" s="17"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="18"/>
-      <c r="T5" s="16"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="18"/>
       <c r="U5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AC5" s="16"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AD5" s="16"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -1508,14 +1519,15 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="26"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="18"/>
-      <c r="T6" s="16"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="18"/>
       <c r="U6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AC6" s="16"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AD6" s="16"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1524,14 +1536,15 @@
       <c r="F7" s="17"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="18"/>
-      <c r="T7" s="16"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="18"/>
       <c r="U7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AC7" s="16"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AD7" s="16"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -1541,14 +1554,15 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="26"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="18"/>
-      <c r="T8" s="16"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="18"/>
       <c r="U8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AC8" s="16"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AD8" s="16"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1557,14 +1571,15 @@
       <c r="F9" s="17"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="18"/>
-      <c r="T9" s="16"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="18"/>
       <c r="U9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AC9" s="16"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AD9" s="16"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1574,14 +1589,15 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="26"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="18"/>
-      <c r="T10" s="16"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="18"/>
       <c r="U10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AC10" s="16"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AD10" s="16"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1590,14 +1606,15 @@
       <c r="F11" s="17"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="18"/>
-      <c r="T11" s="16"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="18"/>
       <c r="U11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AC11" s="16"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AD11" s="16"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1607,14 +1624,15 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="26"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="18"/>
-      <c r="T12" s="16"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="18"/>
       <c r="U12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AC12" s="16"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AD12" s="16"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1623,14 +1641,15 @@
       <c r="F13" s="17"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="18"/>
-      <c r="T13" s="16"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="18"/>
       <c r="U13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AC13" s="16"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AD13" s="16"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1640,14 +1659,15 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="26"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="18"/>
-      <c r="T14" s="16"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="18"/>
       <c r="U14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AC14" s="16"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AD14" s="16"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1656,14 +1676,15 @@
       <c r="F15" s="17"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="18"/>
-      <c r="T15" s="16"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="18"/>
       <c r="U15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AC15" s="16"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AD15" s="16"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1673,14 +1694,15 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="26"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="18"/>
-      <c r="T16" s="16"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="18"/>
       <c r="U16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AC16" s="16"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AD16" s="16"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1689,14 +1711,15 @@
       <c r="F17" s="17"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="18"/>
-      <c r="T17" s="16"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="18"/>
       <c r="U17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AC17" s="16"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AD17" s="16"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1706,14 +1729,15 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="26"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="18"/>
-      <c r="T18" s="16"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="18"/>
       <c r="U18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AC18" s="16"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AD18" s="16"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1722,14 +1746,15 @@
       <c r="F19" s="17"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="18"/>
-      <c r="T19" s="16"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="18"/>
       <c r="U19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AC19" s="16"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AD19" s="16"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1739,14 +1764,15 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="26"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="18"/>
-      <c r="T20" s="16"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="18"/>
       <c r="U20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AC20" s="16"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AD20" s="16"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1755,14 +1781,15 @@
       <c r="F21" s="17"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="18"/>
-      <c r="T21" s="16"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="18"/>
       <c r="U21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AC21" s="16"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AD21" s="16"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1772,14 +1799,15 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="26"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="18"/>
-      <c r="T22" s="16"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="18"/>
       <c r="U22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AC22" s="16"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AD22" s="16"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1788,14 +1816,15 @@
       <c r="F23" s="17"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="18"/>
-      <c r="T23" s="16"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="18"/>
       <c r="U23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AC23" s="16"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AD23" s="16"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -1805,14 +1834,15 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="26"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="18"/>
-      <c r="T24" s="16"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="18"/>
       <c r="U24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AC24" s="16"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AD24" s="16"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1821,14 +1851,15 @@
       <c r="F25" s="17"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="18"/>
-      <c r="T25" s="16"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="18"/>
       <c r="U25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AC25" s="16"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AD25" s="16"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -1838,14 +1869,15 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="26"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="18"/>
-      <c r="T26" s="16"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="18"/>
       <c r="U26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AC26" s="16"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AD26" s="16"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1854,14 +1886,15 @@
       <c r="F27" s="17"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="18"/>
-      <c r="T27" s="16"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="18"/>
       <c r="U27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AC27" s="16"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AD27" s="16"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1871,14 +1904,15 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="26"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="18"/>
-      <c r="T28" s="16"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="18"/>
       <c r="U28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AC28" s="16"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AD28" s="16"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1887,14 +1921,15 @@
       <c r="F29" s="17"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="18"/>
-      <c r="T29" s="16"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="18"/>
       <c r="U29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AC29" s="16"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AD29" s="16"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1904,14 +1939,15 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="26"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="18"/>
-      <c r="T30" s="16"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="18"/>
       <c r="U30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AC30" s="16"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AD30" s="16"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1920,14 +1956,15 @@
       <c r="F31" s="17"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="18"/>
-      <c r="T31" s="16"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="18"/>
       <c r="U31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AC31" s="16"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AD31" s="16"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1937,14 +1974,15 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="26"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="18"/>
-      <c r="T32" s="16"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="18"/>
       <c r="U32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AC32" s="16"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AD32" s="16"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1953,14 +1991,15 @@
       <c r="F33" s="17"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="18"/>
-      <c r="T33" s="16"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="18"/>
       <c r="U33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AC33" s="16"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AD33" s="16"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1969,14 +2008,15 @@
       <c r="F34" s="17"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="18"/>
-      <c r="T34" s="16"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="18"/>
       <c r="U34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AC34" s="16"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AD34" s="16"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -1985,14 +2025,15 @@
       <c r="F35" s="17"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="18"/>
-      <c r="T35" s="16"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="18"/>
       <c r="U35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AC35" s="16"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AD35" s="16"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -2001,14 +2042,15 @@
       <c r="F36" s="17"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="18"/>
-      <c r="T36" s="16"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="18"/>
       <c r="U36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AC36" s="16"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AD36" s="16"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -2017,14 +2059,14 @@
       <c r="F37" s="17"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="18"/>
-      <c r="T37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="18"/>
       <c r="U37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AC37" s="16"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AD37" s="16"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -2033,14 +2075,14 @@
       <c r="F38" s="17"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="18"/>
-      <c r="T38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="18"/>
       <c r="U38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AC38" s="16"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AD38" s="16"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -2049,14 +2091,14 @@
       <c r="F39" s="17"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="18"/>
-      <c r="T39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="18"/>
       <c r="U39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AC39" s="16"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AD39" s="16"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -2065,14 +2107,14 @@
       <c r="F40" s="17"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="18"/>
-      <c r="T40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="18"/>
       <c r="U40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AC40" s="16"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AD40" s="16"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -2081,14 +2123,14 @@
       <c r="F41" s="17"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="18"/>
-      <c r="T41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="18"/>
       <c r="U41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AC41" s="16"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AD41" s="16"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -2097,14 +2139,14 @@
       <c r="F42" s="17"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="18"/>
-      <c r="T42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="18"/>
       <c r="U42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AC42" s="16"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AD42" s="16"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -2113,14 +2155,14 @@
       <c r="F43" s="17"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="18"/>
-      <c r="T43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="18"/>
       <c r="U43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AC43" s="16"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AD43" s="16"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -2129,14 +2171,14 @@
       <c r="F44" s="17"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="18"/>
-      <c r="T44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="18"/>
       <c r="U44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AC44" s="16"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AD44" s="16"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -2145,14 +2187,14 @@
       <c r="F45" s="17"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="18"/>
-      <c r="T45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="18"/>
       <c r="U45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AC45" s="16"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AD45" s="16"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -2161,14 +2203,14 @@
       <c r="F46" s="17"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="18"/>
-      <c r="T46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="18"/>
       <c r="U46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AC46" s="16"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AD46" s="16"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -2177,14 +2219,14 @@
       <c r="F47" s="17"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="18"/>
-      <c r="T47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="18"/>
       <c r="U47" s="16"/>
-      <c r="Z47" s="16"/>
-      <c r="AC47" s="16"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AD47" s="16"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -2193,14 +2235,14 @@
       <c r="F48" s="17"/>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="18"/>
-      <c r="T48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="18"/>
       <c r="U48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AC48" s="16"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AD48" s="16"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -2209,14 +2251,14 @@
       <c r="F49" s="17"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="18"/>
-      <c r="T49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="18"/>
       <c r="U49" s="16"/>
-      <c r="Z49" s="16"/>
-      <c r="AC49" s="16"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AD49" s="16"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -2225,14 +2267,14 @@
       <c r="F50" s="17"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="18"/>
-      <c r="T50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="18"/>
       <c r="U50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AC50" s="16"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AD50" s="16"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -2241,14 +2283,14 @@
       <c r="F51" s="17"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="18"/>
-      <c r="T51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="18"/>
       <c r="U51" s="16"/>
-      <c r="Z51" s="16"/>
-      <c r="AC51" s="16"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AD51" s="16"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -2257,14 +2299,14 @@
       <c r="F52" s="17"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="18"/>
-      <c r="T52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="18"/>
       <c r="U52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AC52" s="16"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AD52" s="16"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -2273,14 +2315,14 @@
       <c r="F53" s="17"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="18"/>
-      <c r="T53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="18"/>
       <c r="U53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AC53" s="16"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AD53" s="16"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -2289,14 +2331,14 @@
       <c r="F54" s="17"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="18"/>
-      <c r="T54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="18"/>
       <c r="U54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AC54" s="16"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AD54" s="16"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -2305,14 +2347,14 @@
       <c r="F55" s="17"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="18"/>
-      <c r="T55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="18"/>
       <c r="U55" s="16"/>
-      <c r="Z55" s="16"/>
-      <c r="AC55" s="16"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AD55" s="16"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -2321,14 +2363,14 @@
       <c r="F56" s="17"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="18"/>
-      <c r="T56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="18"/>
       <c r="U56" s="16"/>
-      <c r="Z56" s="16"/>
-      <c r="AC56" s="16"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AD56" s="16"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -2337,14 +2379,14 @@
       <c r="F57" s="17"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="18"/>
-      <c r="T57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="18"/>
       <c r="U57" s="16"/>
-      <c r="Z57" s="16"/>
-      <c r="AC57" s="16"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AD57" s="16"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -2353,14 +2395,14 @@
       <c r="F58" s="17"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="18"/>
-      <c r="T58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="18"/>
       <c r="U58" s="16"/>
-      <c r="Z58" s="16"/>
-      <c r="AC58" s="16"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AD58" s="16"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -2369,14 +2411,14 @@
       <c r="F59" s="17"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="18"/>
-      <c r="T59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="18"/>
       <c r="U59" s="16"/>
-      <c r="Z59" s="16"/>
-      <c r="AC59" s="16"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AD59" s="16"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -2385,14 +2427,14 @@
       <c r="F60" s="17"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="18"/>
-      <c r="T60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="18"/>
       <c r="U60" s="16"/>
-      <c r="Z60" s="16"/>
-      <c r="AC60" s="16"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AD60" s="16"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -2401,14 +2443,14 @@
       <c r="F61" s="17"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="18"/>
-      <c r="T61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="18"/>
       <c r="U61" s="16"/>
-      <c r="Z61" s="16"/>
-      <c r="AC61" s="16"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AD61" s="16"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -2417,14 +2459,14 @@
       <c r="F62" s="17"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="18"/>
-      <c r="T62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="18"/>
       <c r="U62" s="16"/>
-      <c r="Z62" s="16"/>
-      <c r="AC62" s="16"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AD62" s="16"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -2433,14 +2475,14 @@
       <c r="F63" s="17"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="18"/>
-      <c r="T63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="18"/>
       <c r="U63" s="16"/>
-      <c r="Z63" s="16"/>
-      <c r="AC63" s="16"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AD63" s="16"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -2449,14 +2491,14 @@
       <c r="F64" s="17"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="18"/>
-      <c r="T64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="18"/>
       <c r="U64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AC64" s="16"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AD64" s="16"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -2465,14 +2507,14 @@
       <c r="F65" s="17"/>
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="18"/>
-      <c r="T65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="18"/>
       <c r="U65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AC65" s="16"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AD65" s="16"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -2481,14 +2523,14 @@
       <c r="F66" s="17"/>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="18"/>
-      <c r="T66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="18"/>
       <c r="U66" s="16"/>
-      <c r="Z66" s="16"/>
-      <c r="AC66" s="16"/>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AD66" s="16"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -2497,14 +2539,14 @@
       <c r="F67" s="17"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="18"/>
-      <c r="T67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="18"/>
       <c r="U67" s="16"/>
-      <c r="Z67" s="16"/>
-      <c r="AC67" s="16"/>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AD67" s="16"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -2513,14 +2555,14 @@
       <c r="F68" s="17"/>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="18"/>
-      <c r="T68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="18"/>
       <c r="U68" s="16"/>
-      <c r="Z68" s="16"/>
-      <c r="AC68" s="16"/>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AD68" s="16"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -2529,14 +2571,14 @@
       <c r="F69" s="17"/>
       <c r="G69" s="16"/>
       <c r="H69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="18"/>
-      <c r="T69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="18"/>
       <c r="U69" s="16"/>
-      <c r="Z69" s="16"/>
-      <c r="AC69" s="16"/>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AD69" s="16"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -2545,14 +2587,14 @@
       <c r="F70" s="17"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="18"/>
-      <c r="T70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="18"/>
       <c r="U70" s="16"/>
-      <c r="Z70" s="16"/>
-      <c r="AC70" s="16"/>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AD70" s="16"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -2561,14 +2603,14 @@
       <c r="F71" s="17"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="18"/>
-      <c r="T71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="18"/>
       <c r="U71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AC71" s="16"/>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AD71" s="16"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -2577,14 +2619,14 @@
       <c r="F72" s="17"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="18"/>
-      <c r="T72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="18"/>
       <c r="U72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AC72" s="16"/>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AD72" s="16"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -2593,14 +2635,14 @@
       <c r="F73" s="17"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="18"/>
-      <c r="T73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="18"/>
       <c r="U73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AC73" s="19"/>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AD73" s="19"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -2609,14 +2651,14 @@
       <c r="F74" s="17"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="18"/>
-      <c r="T74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="18"/>
       <c r="U74" s="16"/>
-      <c r="Z74" s="16"/>
-      <c r="AC74" s="19"/>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AD74" s="19"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -2625,14 +2667,14 @@
       <c r="F75" s="17"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="18"/>
-      <c r="T75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="18"/>
       <c r="U75" s="16"/>
-      <c r="Z75" s="16"/>
-      <c r="AC75" s="16"/>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V75" s="16"/>
+      <c r="AA75" s="16"/>
+      <c r="AD75" s="16"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -2641,14 +2683,14 @@
       <c r="F76" s="17"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="18"/>
-      <c r="T76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="18"/>
       <c r="U76" s="16"/>
-      <c r="Z76" s="16"/>
-      <c r="AC76" s="16"/>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AD76" s="16"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -2657,14 +2699,14 @@
       <c r="F77" s="17"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="18"/>
-      <c r="T77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="18"/>
       <c r="U77" s="16"/>
-      <c r="Z77" s="16"/>
-      <c r="AC77" s="16"/>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V77" s="16"/>
+      <c r="AA77" s="16"/>
+      <c r="AD77" s="16"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -2673,14 +2715,14 @@
       <c r="F78" s="17"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="18"/>
-      <c r="T78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="18"/>
       <c r="U78" s="16"/>
-      <c r="Z78" s="16"/>
-      <c r="AC78" s="16"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V78" s="16"/>
+      <c r="AA78" s="16"/>
+      <c r="AD78" s="16"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -2689,14 +2731,14 @@
       <c r="F79" s="17"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="18"/>
-      <c r="T79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="18"/>
       <c r="U79" s="16"/>
-      <c r="Z79" s="16"/>
-      <c r="AC79" s="16"/>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V79" s="16"/>
+      <c r="AA79" s="16"/>
+      <c r="AD79" s="16"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -2705,14 +2747,14 @@
       <c r="F80" s="17"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="18"/>
-      <c r="T80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="18"/>
       <c r="U80" s="16"/>
-      <c r="Z80" s="16"/>
-      <c r="AC80" s="16"/>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V80" s="16"/>
+      <c r="AA80" s="16"/>
+      <c r="AD80" s="16"/>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -2721,14 +2763,14 @@
       <c r="F81" s="17"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="18"/>
-      <c r="T81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="18"/>
       <c r="U81" s="16"/>
-      <c r="Z81" s="16"/>
-      <c r="AC81" s="16"/>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V81" s="16"/>
+      <c r="AA81" s="16"/>
+      <c r="AD81" s="16"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -2737,14 +2779,14 @@
       <c r="F82" s="17"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="18"/>
-      <c r="T82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="18"/>
       <c r="U82" s="16"/>
-      <c r="Z82" s="16"/>
-      <c r="AC82" s="16"/>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V82" s="16"/>
+      <c r="AA82" s="16"/>
+      <c r="AD82" s="16"/>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -2753,14 +2795,14 @@
       <c r="F83" s="17"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="18"/>
-      <c r="T83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="18"/>
       <c r="U83" s="16"/>
-      <c r="Z83" s="16"/>
-      <c r="AC83" s="16"/>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V83" s="16"/>
+      <c r="AA83" s="16"/>
+      <c r="AD83" s="16"/>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -2769,14 +2811,14 @@
       <c r="F84" s="17"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="18"/>
-      <c r="T84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="18"/>
       <c r="U84" s="16"/>
-      <c r="Z84" s="16"/>
-      <c r="AC84" s="16"/>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V84" s="16"/>
+      <c r="AA84" s="16"/>
+      <c r="AD84" s="16"/>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -2785,14 +2827,14 @@
       <c r="F85" s="17"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="18"/>
-      <c r="T85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="18"/>
       <c r="U85" s="16"/>
-      <c r="Z85" s="16"/>
-      <c r="AC85" s="16"/>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V85" s="16"/>
+      <c r="AA85" s="16"/>
+      <c r="AD85" s="16"/>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -2801,14 +2843,14 @@
       <c r="F86" s="17"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="18"/>
-      <c r="T86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="18"/>
       <c r="U86" s="16"/>
-      <c r="Z86" s="16"/>
-      <c r="AC86" s="16"/>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V86" s="16"/>
+      <c r="AA86" s="16"/>
+      <c r="AD86" s="16"/>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -2817,14 +2859,14 @@
       <c r="F87" s="17"/>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="18"/>
-      <c r="T87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="18"/>
       <c r="U87" s="16"/>
-      <c r="Z87" s="16"/>
-      <c r="AC87" s="16"/>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V87" s="16"/>
+      <c r="AA87" s="16"/>
+      <c r="AD87" s="16"/>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -2833,14 +2875,14 @@
       <c r="F88" s="17"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="18"/>
-      <c r="T88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="18"/>
       <c r="U88" s="16"/>
-      <c r="Z88" s="16"/>
-      <c r="AC88" s="16"/>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V88" s="16"/>
+      <c r="AA88" s="16"/>
+      <c r="AD88" s="16"/>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -2849,14 +2891,14 @@
       <c r="F89" s="17"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="18"/>
-      <c r="T89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="18"/>
       <c r="U89" s="16"/>
-      <c r="Z89" s="16"/>
-      <c r="AC89" s="16"/>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V89" s="16"/>
+      <c r="AA89" s="16"/>
+      <c r="AD89" s="16"/>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -2865,14 +2907,14 @@
       <c r="F90" s="17"/>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="18"/>
-      <c r="T90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="18"/>
       <c r="U90" s="16"/>
-      <c r="Z90" s="16"/>
-      <c r="AC90" s="16"/>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V90" s="16"/>
+      <c r="AA90" s="16"/>
+      <c r="AD90" s="16"/>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -2881,14 +2923,14 @@
       <c r="F91" s="17"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="18"/>
-      <c r="T91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="18"/>
       <c r="U91" s="16"/>
-      <c r="Z91" s="16"/>
-      <c r="AC91" s="16"/>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V91" s="16"/>
+      <c r="AA91" s="16"/>
+      <c r="AD91" s="16"/>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -2897,14 +2939,14 @@
       <c r="F92" s="17"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="18"/>
-      <c r="T92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="18"/>
       <c r="U92" s="16"/>
-      <c r="Z92" s="16"/>
-      <c r="AC92" s="16"/>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V92" s="16"/>
+      <c r="AA92" s="16"/>
+      <c r="AD92" s="16"/>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -2913,14 +2955,14 @@
       <c r="F93" s="17"/>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="18"/>
-      <c r="T93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="18"/>
       <c r="U93" s="16"/>
-      <c r="Z93" s="16"/>
-      <c r="AC93" s="16"/>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V93" s="16"/>
+      <c r="AA93" s="16"/>
+      <c r="AD93" s="16"/>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -2929,14 +2971,14 @@
       <c r="F94" s="17"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="18"/>
-      <c r="T94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="18"/>
       <c r="U94" s="16"/>
-      <c r="Z94" s="16"/>
-      <c r="AC94" s="16"/>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V94" s="16"/>
+      <c r="AA94" s="16"/>
+      <c r="AD94" s="16"/>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -2945,14 +2987,14 @@
       <c r="F95" s="17"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="18"/>
-      <c r="T95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="18"/>
       <c r="U95" s="16"/>
-      <c r="Z95" s="16"/>
-      <c r="AC95" s="16"/>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V95" s="16"/>
+      <c r="AA95" s="16"/>
+      <c r="AD95" s="16"/>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -2961,14 +3003,14 @@
       <c r="F96" s="17"/>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="18"/>
-      <c r="T96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="18"/>
       <c r="U96" s="16"/>
-      <c r="Z96" s="16"/>
-      <c r="AC96" s="16"/>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V96" s="16"/>
+      <c r="AA96" s="16"/>
+      <c r="AD96" s="16"/>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -2977,14 +3019,14 @@
       <c r="F97" s="17"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="18"/>
-      <c r="T97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="18"/>
       <c r="U97" s="16"/>
-      <c r="Z97" s="16"/>
-      <c r="AC97" s="16"/>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V97" s="16"/>
+      <c r="AA97" s="16"/>
+      <c r="AD97" s="16"/>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -2993,14 +3035,14 @@
       <c r="F98" s="17"/>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="18"/>
-      <c r="T98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="18"/>
       <c r="U98" s="16"/>
-      <c r="Z98" s="16"/>
-      <c r="AC98" s="16"/>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V98" s="16"/>
+      <c r="AA98" s="16"/>
+      <c r="AD98" s="16"/>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -3009,14 +3051,14 @@
       <c r="F99" s="17"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="18"/>
-      <c r="T99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="18"/>
       <c r="U99" s="16"/>
-      <c r="Z99" s="16"/>
-      <c r="AC99" s="16"/>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V99" s="16"/>
+      <c r="AA99" s="16"/>
+      <c r="AD99" s="16"/>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -3025,14 +3067,14 @@
       <c r="F100" s="17"/>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="18"/>
-      <c r="T100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="18"/>
       <c r="U100" s="16"/>
-      <c r="Z100" s="16"/>
-      <c r="AC100" s="16"/>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V100" s="16"/>
+      <c r="AA100" s="16"/>
+      <c r="AD100" s="16"/>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -3041,14 +3083,14 @@
       <c r="F101" s="17"/>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="18"/>
-      <c r="T101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="18"/>
       <c r="U101" s="16"/>
-      <c r="Z101" s="16"/>
-      <c r="AC101" s="16"/>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V101" s="16"/>
+      <c r="AA101" s="16"/>
+      <c r="AD101" s="16"/>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -3057,14 +3099,14 @@
       <c r="F102" s="17"/>
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="18"/>
-      <c r="T102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="18"/>
       <c r="U102" s="16"/>
-      <c r="Z102" s="16"/>
-      <c r="AC102" s="16"/>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V102" s="16"/>
+      <c r="AA102" s="16"/>
+      <c r="AD102" s="16"/>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -3073,14 +3115,14 @@
       <c r="F103" s="17"/>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="18"/>
-      <c r="T103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="18"/>
       <c r="U103" s="16"/>
-      <c r="Z103" s="16"/>
-      <c r="AC103" s="16"/>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V103" s="16"/>
+      <c r="AA103" s="16"/>
+      <c r="AD103" s="16"/>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -3089,14 +3131,14 @@
       <c r="F104" s="17"/>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="18"/>
-      <c r="T104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="18"/>
       <c r="U104" s="16"/>
-      <c r="Z104" s="16"/>
-      <c r="AC104" s="16"/>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V104" s="16"/>
+      <c r="AA104" s="16"/>
+      <c r="AD104" s="16"/>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -3105,14 +3147,14 @@
       <c r="F105" s="17"/>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
-      <c r="K105" s="16"/>
-      <c r="L105" s="18"/>
-      <c r="T105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="18"/>
       <c r="U105" s="16"/>
-      <c r="Z105" s="16"/>
-      <c r="AC105" s="16"/>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V105" s="16"/>
+      <c r="AA105" s="16"/>
+      <c r="AD105" s="16"/>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -3121,14 +3163,14 @@
       <c r="F106" s="17"/>
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="18"/>
-      <c r="T106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="18"/>
       <c r="U106" s="16"/>
-      <c r="Z106" s="16"/>
-      <c r="AC106" s="16"/>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V106" s="16"/>
+      <c r="AA106" s="16"/>
+      <c r="AD106" s="16"/>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -3137,14 +3179,14 @@
       <c r="F107" s="17"/>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
-      <c r="K107" s="16"/>
-      <c r="L107" s="18"/>
-      <c r="T107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="18"/>
       <c r="U107" s="16"/>
-      <c r="Z107" s="16"/>
-      <c r="AC107" s="16"/>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V107" s="16"/>
+      <c r="AA107" s="16"/>
+      <c r="AD107" s="16"/>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -3153,14 +3195,14 @@
       <c r="F108" s="17"/>
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
-      <c r="K108" s="16"/>
-      <c r="L108" s="18"/>
-      <c r="T108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="18"/>
       <c r="U108" s="16"/>
-      <c r="Z108" s="16"/>
-      <c r="AC108" s="16"/>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V108" s="16"/>
+      <c r="AA108" s="16"/>
+      <c r="AD108" s="16"/>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -3169,14 +3211,14 @@
       <c r="F109" s="17"/>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
-      <c r="K109" s="16"/>
-      <c r="L109" s="18"/>
-      <c r="T109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="18"/>
       <c r="U109" s="16"/>
-      <c r="Z109" s="16"/>
-      <c r="AC109" s="16"/>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V109" s="16"/>
+      <c r="AA109" s="16"/>
+      <c r="AD109" s="16"/>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -3185,14 +3227,14 @@
       <c r="F110" s="17"/>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
-      <c r="K110" s="16"/>
-      <c r="L110" s="18"/>
-      <c r="T110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="18"/>
       <c r="U110" s="16"/>
-      <c r="Z110" s="16"/>
-      <c r="AC110" s="16"/>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V110" s="16"/>
+      <c r="AA110" s="16"/>
+      <c r="AD110" s="16"/>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -3201,14 +3243,14 @@
       <c r="F111" s="17"/>
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
-      <c r="K111" s="16"/>
-      <c r="L111" s="18"/>
-      <c r="T111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="18"/>
       <c r="U111" s="16"/>
-      <c r="Z111" s="16"/>
-      <c r="AC111" s="16"/>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V111" s="16"/>
+      <c r="AA111" s="16"/>
+      <c r="AD111" s="16"/>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -3217,14 +3259,14 @@
       <c r="F112" s="17"/>
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
-      <c r="K112" s="16"/>
-      <c r="L112" s="18"/>
-      <c r="T112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="18"/>
       <c r="U112" s="16"/>
-      <c r="Z112" s="16"/>
-      <c r="AC112" s="16"/>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V112" s="16"/>
+      <c r="AA112" s="16"/>
+      <c r="AD112" s="16"/>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -3233,14 +3275,14 @@
       <c r="F113" s="17"/>
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="18"/>
-      <c r="T113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="18"/>
       <c r="U113" s="16"/>
-      <c r="Z113" s="16"/>
-      <c r="AC113" s="16"/>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V113" s="16"/>
+      <c r="AA113" s="16"/>
+      <c r="AD113" s="16"/>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -3249,14 +3291,14 @@
       <c r="F114" s="17"/>
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="18"/>
-      <c r="T114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="18"/>
       <c r="U114" s="16"/>
-      <c r="Z114" s="16"/>
-      <c r="AC114" s="16"/>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V114" s="16"/>
+      <c r="AA114" s="16"/>
+      <c r="AD114" s="16"/>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -3265,14 +3307,14 @@
       <c r="F115" s="17"/>
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="18"/>
-      <c r="T115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="18"/>
       <c r="U115" s="16"/>
-      <c r="Z115" s="16"/>
-      <c r="AC115" s="16"/>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V115" s="16"/>
+      <c r="AA115" s="16"/>
+      <c r="AD115" s="16"/>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -3281,14 +3323,14 @@
       <c r="F116" s="17"/>
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
-      <c r="K116" s="16"/>
-      <c r="L116" s="18"/>
-      <c r="T116" s="16"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="18"/>
       <c r="U116" s="16"/>
-      <c r="Z116" s="16"/>
-      <c r="AC116" s="16"/>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V116" s="16"/>
+      <c r="AA116" s="16"/>
+      <c r="AD116" s="16"/>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -3297,14 +3339,14 @@
       <c r="F117" s="17"/>
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
-      <c r="K117" s="16"/>
-      <c r="L117" s="18"/>
-      <c r="T117" s="16"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="18"/>
       <c r="U117" s="16"/>
-      <c r="Z117" s="16"/>
-      <c r="AC117" s="16"/>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V117" s="16"/>
+      <c r="AA117" s="16"/>
+      <c r="AD117" s="16"/>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
@@ -3313,14 +3355,14 @@
       <c r="F118" s="17"/>
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
-      <c r="K118" s="16"/>
-      <c r="L118" s="18"/>
-      <c r="T118" s="16"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="18"/>
       <c r="U118" s="16"/>
-      <c r="Z118" s="16"/>
-      <c r="AC118" s="16"/>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V118" s="16"/>
+      <c r="AA118" s="16"/>
+      <c r="AD118" s="16"/>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -3329,14 +3371,14 @@
       <c r="F119" s="17"/>
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="18"/>
-      <c r="T119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="18"/>
       <c r="U119" s="16"/>
-      <c r="Z119" s="16"/>
-      <c r="AC119" s="16"/>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V119" s="16"/>
+      <c r="AA119" s="16"/>
+      <c r="AD119" s="16"/>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -3345,14 +3387,14 @@
       <c r="F120" s="17"/>
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
-      <c r="K120" s="16"/>
-      <c r="L120" s="18"/>
-      <c r="T120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="18"/>
       <c r="U120" s="16"/>
-      <c r="Z120" s="16"/>
-      <c r="AC120" s="16"/>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V120" s="16"/>
+      <c r="AA120" s="16"/>
+      <c r="AD120" s="16"/>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -3361,25 +3403,30 @@
       <c r="F121" s="17"/>
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
-      <c r="K121" s="16"/>
-      <c r="L121" s="18"/>
-      <c r="T121" s="16"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="18"/>
       <c r="U121" s="16"/>
-      <c r="Z121" s="16"/>
-      <c r="AC121" s="16"/>
+      <c r="V121" s="16"/>
+      <c r="AA121" s="16"/>
+      <c r="AD121" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="J1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:A121 C2:C121">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3392,7 +3439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="A37" sqref="A37:XFD136"/>
       <selection pane="topRight" activeCell="A37" sqref="A37:XFD136"/>
@@ -5249,6 +5296,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AE2:AF2"/>
@@ -5258,11 +5310,6 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:B34 D4 F4 H4 J4 L4 N4 P4 R4 T4 V4 X4 Z4 AB4 AD4 AF4 AH4 B4:B16 AJ4 AL4">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
@@ -5349,34 +5396,34 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="47" t="s">
         <v>71</v>
       </c>
       <c r="M2" s="37" t="s">
@@ -5796,16 +5843,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2"/>
     <mergeCell ref="H2"/>
     <mergeCell ref="I2"/>
     <mergeCell ref="J2"/>
     <mergeCell ref="K2"/>
     <mergeCell ref="L2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B36 D4 F4 H4 J4 L4 N4">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
